--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="-24" windowWidth="16704" windowHeight="6564" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="-30" windowWidth="16710" windowHeight="6570" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>93-2</t>
   </si>
   <si>
-    <t>CP02PMUI-WFP01-03-VEL3DK000</t>
-  </si>
-  <si>
     <t>100012-2</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>CC_scattering_angle</t>
+  </si>
+  <si>
+    <t>CP02PMUI-WFP01-01-VEL3DK000</t>
   </si>
 </sst>
 </file>
@@ -494,10 +494,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="454545"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FAFAFA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -782,22 +782,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.77734375"/>
-    <col min="8" max="8" width="17.6640625"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="17.7109375"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2">
+    <row r="1" spans="1:11" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -852,10 +852,10 @@
         <v>41947</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>12</v>
@@ -876,26 +876,26 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.88671875"/>
-    <col min="2" max="2" width="27.21875"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="28.21875"/>
-    <col min="5" max="5" width="43.77734375"/>
-    <col min="6" max="6" width="41.77734375"/>
-    <col min="7" max="7" width="8.6640625"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="40.85546875"/>
+    <col min="2" max="2" width="27.28515625"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625"/>
+    <col min="5" max="5" width="43.7109375"/>
+    <col min="6" max="6" width="41.7109375"/>
+    <col min="7" max="7" width="8.7109375"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="14.42578125"/>
+    <col min="11" max="11" width="13.42578125"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2">
+    <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -1201,19 +1201,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="F18" s="10">
         <v>40.369999999999997</v>
@@ -1221,19 +1221,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="10">
         <v>-70.78</v>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="15">
         <v>1.08</v>
@@ -1269,19 +1269,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="F22" s="10">
         <v>43</v>
@@ -1289,19 +1289,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="10">
         <v>51</v>
@@ -1309,19 +1309,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" s="10">
         <v>48</v>
@@ -1329,19 +1329,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="15">
         <v>3.9E-2</v>
@@ -1349,19 +1349,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="15">
         <v>700</v>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="10">
         <v>9.1999999999999998E-2</v>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="10">
         <v>1.2200000000000001E-2</v>
@@ -1409,19 +1409,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="16">
         <v>2.12E-6</v>
@@ -1429,19 +1429,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="15">
         <v>117</v>
@@ -1457,19 +1457,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="F32" s="10">
         <v>1.3</v>
@@ -1477,19 +1477,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="16">
         <v>9.9799999999999993E-18</v>
@@ -1500,58 +1500,58 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="11">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="11">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="-30" windowWidth="16710" windowHeight="6570" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="192" yWindow="-36" windowWidth="16716" windowHeight="6576" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$102</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$407</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -187,9 +187,6 @@
     <t>21436-2</t>
   </si>
   <si>
-    <t>CP02PMUO-SBS01-XX-RTEXX0000</t>
-  </si>
-  <si>
     <t>22436-2</t>
   </si>
   <si>
@@ -227,13 +224,16 @@
   </si>
   <si>
     <t>CP02PMUI-WFP01-01-VEL3DK000</t>
+  </si>
+  <si>
+    <t>CP02PMUI-SBS01-00-RTE000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -284,6 +284,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -364,10 +377,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,8 +421,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,10 +510,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="454545"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FAFAFA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -782,22 +798,22 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="17.7109375"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="17.6640625"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="51.6640625"/>
+    <col min="12" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:11" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -832,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -852,10 +868,10 @@
         <v>41947</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>12</v>
@@ -875,27 +891,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.85546875"/>
-    <col min="2" max="2" width="27.28515625"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625"/>
-    <col min="5" max="5" width="43.7109375"/>
-    <col min="6" max="6" width="41.7109375"/>
-    <col min="7" max="7" width="8.7109375"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="40.88671875"/>
+    <col min="2" max="2" width="27.33203125"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125"/>
+    <col min="5" max="5" width="43.6640625"/>
+    <col min="6" max="6" width="41.6640625"/>
+    <col min="7" max="7" width="8.6640625"/>
+    <col min="8" max="8" width="11.44140625"/>
+    <col min="9" max="9" width="11.88671875"/>
+    <col min="10" max="10" width="14.44140625"/>
+    <col min="11" max="11" width="13.44140625"/>
+    <col min="12" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:6" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>15</v>
@@ -1201,7 +1217,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -1221,7 +1237,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -1261,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" s="15">
         <v>1.08</v>
@@ -1341,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="15">
         <v>3.9E-2</v>
@@ -1361,7 +1377,7 @@
         <v>37</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="15">
         <v>700</v>
@@ -1441,7 +1457,7 @@
         <v>37</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="15">
         <v>117</v>
@@ -1513,50 +1529,50 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="11">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="-36" windowWidth="16716" windowHeight="6576" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="195" yWindow="-30" windowWidth="16710" windowHeight="6570" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$102</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$407</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -298,6 +298,12 @@
       <name val="DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -381,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -422,6 +428,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -792,28 +801,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="17.6640625"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
-    <col min="11" max="11" width="51.6640625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="17.7109375"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
+    <col min="11" max="11" width="51.7109375"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -880,6 +889,14 @@
         <v>13</v>
       </c>
       <c r="K2" s="8"/>
+      <c r="L2" s="18">
+        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
+        <v>40.364956666666664</v>
+      </c>
+      <c r="M2" s="18">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
+        <v>-70.686011666666673</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -891,27 +908,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.88671875"/>
-    <col min="2" max="2" width="27.33203125"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125"/>
-    <col min="5" max="5" width="43.6640625"/>
-    <col min="6" max="6" width="41.6640625"/>
-    <col min="7" max="7" width="8.6640625"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="1" max="1" width="40.85546875"/>
+    <col min="2" max="2" width="27.28515625"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625"/>
+    <col min="5" max="5" width="43.7109375"/>
+    <col min="6" max="6" width="41.7109375"/>
+    <col min="7" max="7" width="8.7109375"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="14.42578125"/>
+    <col min="11" max="11" width="13.42578125"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.2">
+    <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>58</v>
       </c>
       <c r="F21" s="15">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1460,7 +1477,7 @@
         <v>61</v>
       </c>
       <c r="F30" s="15">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:6">

--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t>Ref Des</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>CP02PMUI-00002</t>
-  </si>
-  <si>
-    <t>95 m</t>
   </si>
   <si>
     <t>KN 217</t>
@@ -804,7 +801,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -877,16 +874,16 @@
         <v>41947</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="7">
+        <v>95</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="18">
@@ -933,36 +930,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="10">
         <v>91.5</v>
@@ -970,19 +967,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10">
         <v>40.369999999999997</v>
@@ -990,19 +987,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="10">
         <v>-70.78</v>
@@ -1018,19 +1015,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="13">
         <v>-839.55</v>
@@ -1038,19 +1035,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10">
         <v>40.369999999999997</v>
@@ -1058,19 +1055,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="10">
         <v>-70.78</v>
@@ -1078,19 +1075,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="13">
         <v>2.9967999999999998E-4</v>
@@ -1098,19 +1095,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13">
         <v>-4.1168000000000003E-3</v>
@@ -1118,19 +1115,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="13">
         <v>2.4818000000000003E-4</v>
@@ -1138,19 +1135,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="13">
         <v>-3.8820000000000003E-6</v>
@@ -1158,19 +1155,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13">
         <v>3.5999999999999997E-2</v>
@@ -1186,19 +1183,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="10">
         <v>40.369999999999997</v>
@@ -1206,19 +1203,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="10">
         <v>-70.78</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>11</v>
@@ -1243,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="10">
         <v>40.369999999999997</v>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -1263,10 +1260,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10">
         <v>-70.78</v>
@@ -1282,19 +1279,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="15">
         <v>1.0760000000000001</v>
@@ -1302,19 +1299,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="F22" s="10">
         <v>43</v>
@@ -1322,19 +1319,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="10">
         <v>51</v>
@@ -1342,19 +1339,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="10">
         <v>48</v>
@@ -1362,19 +1359,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" s="15">
         <v>3.9E-2</v>
@@ -1382,19 +1379,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="15">
         <v>700</v>
@@ -1402,19 +1399,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="10">
         <v>9.1999999999999998E-2</v>
@@ -1422,19 +1419,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="10">
         <v>1.2200000000000001E-2</v>
@@ -1442,19 +1439,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="16">
         <v>2.12E-6</v>
@@ -1462,19 +1459,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="15">
         <v>124</v>
@@ -1490,19 +1487,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="F32" s="10">
         <v>1.3</v>
@@ -1510,19 +1507,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="16">
         <v>9.9799999999999993E-18</v>
@@ -1533,21 +1530,21 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="11">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>11</v>
@@ -1556,35 +1553,35 @@
         <v>2</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="11">
-        <v>2</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="-30" windowWidth="16710" windowHeight="6570" tabRatio="377"/>
+    <workbookView xWindow="7760" yWindow="6820" windowWidth="25620" windowHeight="12540" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$102</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
@@ -25,17 +25,22 @@
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$407</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$102</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$407</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>Ref Des</t>
   </si>
@@ -73,9 +78,6 @@
     <t>CP02PMUI-00002</t>
   </si>
   <si>
-    <t>KN 217</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
@@ -88,12 +90,6 @@
     <t>Calibration Cofficient Value</t>
   </si>
   <si>
-    <t>CP02PMUI-RII01-02-ADCPTG000</t>
-  </si>
-  <si>
-    <t>20499-2</t>
-  </si>
-  <si>
     <t>CC_depth</t>
   </si>
   <si>
@@ -106,9 +102,6 @@
     <t>CP02PMUI-WFP01-02-DOFSTK000</t>
   </si>
   <si>
-    <t>43-0209-2</t>
-  </si>
-  <si>
     <t>CC_frequency_offset</t>
   </si>
   <si>
@@ -130,12 +123,6 @@
     <t>CP02PMUI-WFP01-03-CTDPFK000</t>
   </si>
   <si>
-    <t>93-2</t>
-  </si>
-  <si>
-    <t>100012-2</t>
-  </si>
-  <si>
     <t>CC_lat</t>
   </si>
   <si>
@@ -145,9 +132,6 @@
     <t>CP02PMUI-WFP01-04-FLORTK000</t>
   </si>
   <si>
-    <t>830-2</t>
-  </si>
-  <si>
     <t>CC_dark_counts_cdom</t>
   </si>
   <si>
@@ -169,45 +153,18 @@
     <t>CP02PMUI-WFP01-05-PARADK000</t>
   </si>
   <si>
-    <t>20436-2</t>
-  </si>
-  <si>
     <t>CC_dark_offset</t>
   </si>
   <si>
     <t>CC_scale_wet</t>
   </si>
   <si>
-    <t>CP02PMUO-SBS01-00-STCENG000</t>
-  </si>
-  <si>
-    <t>21436-2</t>
-  </si>
-  <si>
-    <t>22436-2</t>
-  </si>
-  <si>
-    <t>CP02PMUI-WFP01-00-STCENG000</t>
-  </si>
-  <si>
-    <t>23436-2</t>
-  </si>
-  <si>
     <t>CP02PMUI-SBS01-01-MOPAK0000</t>
   </si>
   <si>
-    <t>24436-2</t>
-  </si>
-  <si>
     <t>Deployment Number</t>
   </si>
   <si>
-    <t>40°21.8974'N</t>
-  </si>
-  <si>
-    <t>70°41.1607'W</t>
-  </si>
-  <si>
     <t>CC_angular_resolution</t>
   </si>
   <si>
@@ -223,14 +180,51 @@
     <t>CP02PMUI-WFP01-01-VEL3DK000</t>
   </si>
   <si>
-    <t>CP02PMUI-SBS01-00-RTE000000</t>
+    <t>KN-217</t>
+  </si>
+  <si>
+    <t>40° 21.897' N</t>
+  </si>
+  <si>
+    <t>70° 46.161' W</t>
+  </si>
+  <si>
+    <r>
+      <t>CP02PMUI-RII01-02-ADCPTG0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="DejaVu Sans Mono"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>CP02PMUI-WFP01-00-WFPENG000</t>
+  </si>
+  <si>
+    <t>CP02PMUI-SBS01-00-STCENG000</t>
+  </si>
+  <si>
+    <t>43-0209</t>
+  </si>
+  <si>
+    <t>12714-01</t>
+  </si>
+  <si>
+    <t>SNW: I'm not sure if this is right.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,16 +285,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -380,11 +398,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,13 +450,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,26 +845,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="17.7109375"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="51.7109375"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -854,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -870,142 +913,139 @@
       <c r="E2" s="6">
         <v>0.6958333333333333</v>
       </c>
-      <c r="F2" s="5">
-        <v>41947</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>56</v>
+      <c r="F2" s="18">
+        <v>41921</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="I2" s="7">
         <v>95</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8"/>
-      <c r="L2" s="18">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>40.364956666666664</v>
-      </c>
-      <c r="M2" s="18">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-70.686011666666673</v>
-      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.85546875"/>
-    <col min="2" max="2" width="27.28515625"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625"/>
-    <col min="5" max="5" width="43.7109375"/>
-    <col min="6" max="6" width="41.7109375"/>
-    <col min="7" max="7" width="8.7109375"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>20499</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="F2" s="10">
+        <v>75000</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20499</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="F3" s="20">
+        <v>40.36495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20499</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="10">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
-        <v>40.369999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10">
-        <v>-70.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="20">
+        <v>-70.769350000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1013,580 +1053,579 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>24436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-839.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="20">
+        <v>40.36495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="20">
+        <v>-70.769350000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.9967999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="F12" s="13">
+        <v>-4.1168000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F13" s="13">
+        <v>2.4818000000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13">
-        <v>-839.55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10">
-        <v>40.369999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10">
-        <v>-70.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F14" s="13">
+        <v>-3.8820000000000003E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="13">
-        <v>2.9967999999999998E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F15" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="13">
-        <v>-4.1168000000000003E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>93</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="20">
+        <v>40.36495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>93</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="20">
+        <v>-70.769350000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>100012</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="13">
-        <v>2.4818000000000003E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11">
-        <v>2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F20" s="20">
+        <v>40.36495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>100012</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="13">
-        <v>-3.8820000000000003E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="F21" s="20">
+        <v>-70.769350000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="15">
+      <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="13">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10" t="s">
+      <c r="B23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11">
+        <v>830</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1.0760000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15">
+      <c r="A24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>830</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="F24" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>830</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="10">
-        <v>40.369999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10">
-        <v>-70.78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="F25" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>830</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F26" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>830</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="15">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>830</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>830</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="10">
-        <v>40.369999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="F29" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15">
+      <c r="A30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11">
+        <v>830</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="10">
-        <v>-70.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="F30" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15">
+      <c r="A31" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>830</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="F31" s="16">
+        <v>2.12E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15">
+      <c r="A32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11">
+        <v>830</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1.0760000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>20436</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11">
+        <v>20436</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F35" s="16">
+        <v>9.9799999999999993E-18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="15">
+      <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="15">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="11">
-        <v>2</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="15">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="11">
-        <v>2</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="10">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2.12E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="15">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="11">
-        <v>2</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="11">
-        <v>2</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="16">
-        <v>9.9799999999999993E-18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="10"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="11">
-        <v>2</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="11">
-        <v>2</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="B37" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="11">
         <v>2</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10" t="s">
+      <c r="D37" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="11">
-        <v>2</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>53</v>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <v>23436</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
+++ b/CP02PMUI/Omaha_Cal_Info_CP02PMUI_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CP02PMUI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="6820" windowWidth="25620" windowHeight="12540" tabRatio="377"/>
+    <workbookView xWindow="7755" yWindow="6825" windowWidth="25620" windowHeight="12540" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$102</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$407</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -224,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -552,6 +557,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -845,24 +853,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="47.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -947,22 +955,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +1013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>40.36495</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>-70.769350000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1053,7 +1061,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>24436</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>-839.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>40.36495</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>-70.769350000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>2.9967999999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>-4.1168000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>2.4818000000000003E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>-3.8820000000000003E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1235,7 +1243,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>40.36495</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>-70.769350000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1283,7 +1291,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="A20" s="10" t="s">
         <v>45</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>40.36495</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="A21" s="10" t="s">
         <v>45</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>-70.769350000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1331,7 +1339,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6">
       <c r="A23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>1.0760000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
         <v>29</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
         <v>29</v>
       </c>
@@ -1491,7 +1499,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>2.12E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1539,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1539,7 +1547,7 @@
       <c r="E33" s="10"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>36</v>
       </c>
@@ -1579,10 +1587,10 @@
         <v>9.9799999999999993E-18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7">
       <c r="A37" s="22" t="s">
         <v>51</v>
       </c>
@@ -1596,13 +1604,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7">
       <c r="A38" s="22"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7">
       <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
